--- a/medicine/Enfance/Bugatti_Type_52/Bugatti_Type_52.xlsx
+++ b/medicine/Enfance/Bugatti_Type_52/Bugatti_Type_52.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Bugatti  Baby est une voiture électrique de sport pour enfant du constructeur automobile Bugatti, construite entre 1926 et 1936 à environ 500 exemplaires[1],[2].
+La Bugatti  Baby est une voiture électrique de sport pour enfant du constructeur automobile Bugatti, construite entre 1926 et 1936 à environ 500 exemplaires,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1926 Ettore Bugatti (et son fils Jean Bugatti âgé de 17 ans) conçoit ce modèle réduit de sa voiture de compétition automobile / Grand Prix automobile Bugatti Type 35 (Championne du Monde de Grand Prix 1926, qui domine la compétition automobile de nombreuses années...). Il l'offre à son second fils Roland Bugatti (1922-1977) pour l'anniversaire de ses 4 ans. 
 			Roland Bugatti enfant, et son père Ettore Bugatti, dans la cour de l'Usine Bugatti de Molsheim
@@ -553,9 +567,11 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1950 : Tintin au pays de l'or noir, bande dessinée de l'Hergé, en représente une offerte par l'émir Ben Kalish Ezab, à son fils le prince Abdallah[3])</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1950 : Tintin au pays de l'or noir, bande dessinée de l'Hergé, en représente une offerte par l'émir Ben Kalish Ezab, à son fils le prince Abdallah)</t>
         </is>
       </c>
     </row>
